--- a/service-system/target/classes/static/路基压实度.xlsx
+++ b/service-system/target/classes/static/路基压实度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77688AA6-AB7B-4C0D-B8FF-1EF2E7BCF946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B54DD2-E7E1-4845-A3DF-6D4F09587957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="评定单元" sheetId="30" r:id="rId1"/>
@@ -1805,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2193,13 +2193,10 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.78740157480314998" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314998" right="0.74803149606299202" top="0.55118110236220497" bottom="0.82677165354330695" header="0.31496062992126" footer="0.55118110236220497"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
-第&amp;P页共&amp;N+2页</oddHeader>
-    <oddFooter>&amp;C检测：                             复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2212,7 +2209,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2600,13 +2597,10 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.78740157480314998" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314998" right="0.74803149606299202" top="0.55118110236220497" bottom="0.82677165354330695" header="0.31496062992126" footer="0.55118110236220497"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
-第&amp;P+2页共&amp;N+2页</oddHeader>
-    <oddFooter>&amp;C检测：                           复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -2618,8 +2612,8 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G31"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3367,8 +3361,7 @@
   <pageMargins left="0.78740157480314998" right="0.74803149606299202" top="0.55118110236220497" bottom="0.82677165354330695" header="0.31496062992126" footer="0.55118110236220497"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                   复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3380,8 +3373,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3928,8 +3921,7 @@
   <pageMargins left="0.78740157480314998" right="0.74803149606299202" top="0.55118110236220497" bottom="0.82677165354330695" header="0.31496062992126" footer="0.55118110236220497"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                   复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="28" man="1"/>
